--- a/documents/goals/18Q4/Goals_FY18_Q4_Goal_ShanShichao.xlsx
+++ b/documents/goals/18Q4/Goals_FY18_Q4_Goal_ShanShichao.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shchshan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shchshan\Desktop\telanav_diary\documents\goals\18Q4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A61B3D37-81B5-496A-8B20-F6F68BA71B57}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{22944F4B-203E-4ED0-9849-170AF8206DDC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2820" yWindow="-25120" windowWidth="20740" windowHeight="11640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <definedName name="Total" localSheetId="0">'IC Goals Sheet '!$L$8</definedName>
     <definedName name="Total">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017" calcOnSave="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -35,6 +35,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ow Giuffre, Fiona</author>
+    <author>Shan Shichao</author>
   </authors>
   <commentList>
     <comment ref="L8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -62,6 +63,80 @@
         </r>
       </text>
     </comment>
+    <comment ref="B41" authorId="1" shapeId="0" xr:uid="{9D7078C5-9F57-4241-ABAA-14CBB1898A1B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Shan Shichao:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Toll cost permanent ID design doc to support new toll cost model and be compatible with old toll cost model</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B42" authorId="1" shapeId="0" xr:uid="{AAC22E9E-D58D-4239-87CF-9F52A761FC10}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Shan Shichao:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+1.Denali CN PBF deliver on time
+2.Reviewed proposal of simplification
+3.Simplified EC pipeline full tested based on 18Q1 data</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B44" authorId="1" shapeId="0" xr:uid="{ECDD62B2-6AE3-4E6E-B07B-CD7AD4E89A2E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Shan Shichao:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Denali/Yangzi VDE deliver on time</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -329,7 +404,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -457,6 +532,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -868,6 +956,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -901,20 +1001,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1301,13 +1389,13 @@
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
       <c r="P1" s="3"/>
-      <c r="R1" s="84" t="s">
+      <c r="R1" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
     </row>
     <row r="2" spans="1:22" ht="38" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -1328,13 +1416,13 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="R2" s="85" t="s">
+      <c r="R2" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="90"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
@@ -1348,20 +1436,20 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="87" t="s">
+      <c r="J3" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
       <c r="P3" s="3"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="86"/>
-      <c r="U3" s="86"/>
-      <c r="V3" s="86"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
     </row>
     <row r="4" spans="1:22" ht="8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
@@ -1380,11 +1468,11 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="86"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="86"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
     </row>
     <row r="5" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31"/>
@@ -1397,19 +1485,19 @@
       <c r="H5" s="31"/>
       <c r="I5" s="31"/>
       <c r="J5" s="32"/>
-      <c r="K5" s="89" t="s">
+      <c r="K5" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="86"/>
-      <c r="T5" s="86"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="93"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="90"/>
+      <c r="T5" s="90"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
     </row>
     <row r="6" spans="1:22" ht="37.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="48"/>
@@ -1422,21 +1510,21 @@
       <c r="H6" s="48"/>
       <c r="I6" s="48"/>
       <c r="J6" s="49"/>
-      <c r="K6" s="88" t="s">
+      <c r="K6" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88" t="s">
+      <c r="L6" s="92"/>
+      <c r="M6" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="88"/>
+      <c r="N6" s="92"/>
       <c r="O6" s="64"/>
       <c r="P6" s="65"/>
-      <c r="R6" s="86"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="86"/>
-      <c r="U6" s="86"/>
-      <c r="V6" s="86"/>
+      <c r="R6" s="90"/>
+      <c r="S6" s="90"/>
+      <c r="T6" s="90"/>
+      <c r="U6" s="90"/>
+      <c r="V6" s="90"/>
     </row>
     <row r="7" spans="1:22" ht="34.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="48"/>
@@ -1463,11 +1551,11 @@
       </c>
       <c r="O7" s="67"/>
       <c r="P7" s="65"/>
-      <c r="R7" s="86"/>
-      <c r="S7" s="86"/>
-      <c r="T7" s="86"/>
-      <c r="U7" s="86"/>
-      <c r="V7" s="86"/>
+      <c r="R7" s="90"/>
+      <c r="S7" s="90"/>
+      <c r="T7" s="90"/>
+      <c r="U7" s="90"/>
+      <c r="V7" s="90"/>
     </row>
     <row r="8" spans="1:22" s="12" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="35"/>
@@ -1500,11 +1588,11 @@
       </c>
       <c r="O8" s="53"/>
       <c r="P8" s="52"/>
-      <c r="R8" s="86"/>
-      <c r="S8" s="86"/>
-      <c r="T8" s="86"/>
-      <c r="U8" s="86"/>
-      <c r="V8" s="86"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="90"/>
+      <c r="T8" s="90"/>
+      <c r="U8" s="90"/>
+      <c r="V8" s="90"/>
     </row>
     <row r="9" spans="1:22" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="36"/>
@@ -1533,12 +1621,12 @@
     </row>
     <row r="10" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="81"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="85"/>
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
       <c r="J10" s="42"/>
@@ -1556,14 +1644,14 @@
     </row>
     <row r="11" spans="1:22" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15"/>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="83"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="87"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="16"/>
@@ -1943,12 +2031,12 @@
     </row>
     <row r="26" spans="1:22" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="15"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="79"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="83"/>
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
       <c r="J26" s="16"/>
@@ -2207,17 +2295,17 @@
     </row>
     <row r="37" spans="1:22" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A37" s="13"/>
-      <c r="B37" s="91" t="s">
+      <c r="B37" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="91"/>
-      <c r="D37" s="91"/>
-      <c r="E37" s="91"/>
-      <c r="F37" s="91"/>
-      <c r="G37" s="91"/>
-      <c r="H37" s="91"/>
-      <c r="I37" s="91"/>
-      <c r="J37" s="91"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
@@ -2246,15 +2334,15 @@
     <row r="39" spans="1:22" s="14" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="15"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="89" t="s">
+      <c r="C39" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="89"/>
+      <c r="D39" s="79"/>
       <c r="E39" s="61"/>
-      <c r="F39" s="89" t="s">
+      <c r="F39" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="G39" s="89"/>
+      <c r="G39" s="79"/>
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
       <c r="J39" s="15"/>
@@ -2439,15 +2527,15 @@
     <row r="48" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A48" s="15"/>
       <c r="B48" s="60"/>
-      <c r="C48" s="89" t="s">
+      <c r="C48" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="D48" s="89"/>
+      <c r="D48" s="79"/>
       <c r="E48" s="61"/>
-      <c r="F48" s="89" t="s">
+      <c r="F48" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="G48" s="89"/>
+      <c r="G48" s="79"/>
       <c r="H48" s="41"/>
       <c r="I48" s="41"/>
       <c r="J48" s="16"/>
@@ -2582,16 +2670,16 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" s="15"/>
-      <c r="B56" s="92" t="s">
+      <c r="B56" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="92"/>
-      <c r="D56" s="92"/>
-      <c r="E56" s="93"/>
-      <c r="F56" s="89" t="s">
+      <c r="C56" s="80"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="G56" s="89"/>
+      <c r="G56" s="79"/>
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
       <c r="J56" s="16"/>
@@ -2604,10 +2692,10 @@
     </row>
     <row r="57" spans="1:16" ht="31" x14ac:dyDescent="0.35">
       <c r="A57" s="15"/>
-      <c r="B57" s="92"/>
-      <c r="C57" s="92"/>
-      <c r="D57" s="92"/>
-      <c r="E57" s="93"/>
+      <c r="B57" s="80"/>
+      <c r="C57" s="80"/>
+      <c r="D57" s="80"/>
+      <c r="E57" s="81"/>
       <c r="F57" s="59" t="s">
         <v>29</v>
       </c>
@@ -2682,15 +2770,15 @@
     <row r="62" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="15"/>
       <c r="B62" s="60"/>
-      <c r="C62" s="89" t="s">
+      <c r="C62" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="D62" s="89"/>
+      <c r="D62" s="79"/>
       <c r="E62" s="61"/>
-      <c r="F62" s="89" t="s">
+      <c r="F62" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="G62" s="89"/>
+      <c r="G62" s="79"/>
       <c r="H62" s="15"/>
       <c r="I62" s="15"/>
       <c r="J62" s="16"/>
@@ -3141,6 +3229,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="R2:V8"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="K5:P5"/>
     <mergeCell ref="B37:J37"/>
     <mergeCell ref="C62:D62"/>
     <mergeCell ref="F62:G62"/>
@@ -3150,15 +3247,6 @@
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="B56:E57"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="R2:V8"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="K5:P5"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
